--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-sex-at-birth-vs.xlsx
+++ b/docs/ValueSet-sex-at-birth-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
